--- a/CC2640_NEW/FirmwareDocuments/firmware_checklist.xlsx
+++ b/CC2640_NEW/FirmwareDocuments/firmware_checklist.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37311A56-FED7-4140-88B6-DBB165BBDBE3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE801293-5C3B-479D-A353-329F9250D352}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CC2640_NO_NFC" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>Feature</t>
   </si>
@@ -82,9 +83,6 @@
     <t>0x4C, 0x00, 0x02, 0x15</t>
   </si>
   <si>
-    <t>0xFF, 0xFF, 0xFF, 0xFF,</t>
-  </si>
-  <si>
     <t>0xFF,</t>
   </si>
   <si>
@@ -94,13 +92,7 @@
     <t>固定内容</t>
   </si>
   <si>
-    <t>碰一碰轮播MAC地址。Mac Address： (A-B-C-D-E-F)。SUM(A+B+C)-D-E-F</t>
-  </si>
-  <si>
     <t>版本信息，低4位软件，高四位硬件。</t>
-  </si>
-  <si>
-    <t>设备类型，区分发送广播的是基站还是beacon</t>
   </si>
   <si>
     <t>传播才会用的广播内容。
@@ -114,6 +106,27 @@
   </si>
   <si>
     <t>FLAG。bit7按一按，bit6低电量，bit5碰一碰</t>
+  </si>
+  <si>
+    <t>0xFF</t>
+  </si>
+  <si>
+    <t>MAC CRC Check Byte</t>
+  </si>
+  <si>
+    <t>0xFF,0xFF, 0xFF, 0xFF,</t>
+  </si>
+  <si>
+    <t>device type</t>
+  </si>
+  <si>
+    <t>MAC ADDR. A-B-C-D-E-F. SUM(A+B+C)-D-E-F</t>
+  </si>
+  <si>
+    <t>超过10个立刻结束</t>
+  </si>
+  <si>
+    <t>EEPROM超过200个，查</t>
   </si>
 </sst>
 </file>
@@ -169,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -193,11 +206,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -475,215 +491,251 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="73.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="7"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="8"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="7"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="8"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="7"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="7"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="7"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="7"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="7"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="7"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="B25" s="8"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="7"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="8"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="7"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="B27" s="8"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="7"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="B28" s="8"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="7"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="B29" s="8"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="8"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B13:B19"/>
-    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="B24:B30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E73BA00-F0E7-418A-9620-EAC9FCC674E4}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="20.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>